--- a/data/FOREX_3A_historical.xlsx
+++ b/data/FOREX_3A_historical.xlsx
@@ -7169,7 +7169,9 @@
       <c r="CD32" t="n">
         <v>2803.33854230429</v>
       </c>
-      <c r="CE32" t="inlineStr"/>
+      <c r="CE32" t="n">
+        <v>2807.7251981475</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -16644,7 +16646,9 @@
       <c r="CD77" t="n">
         <v>74.37546358641249</v>
       </c>
-      <c r="CE77" t="inlineStr"/>
+      <c r="CE77" t="n">
+        <v>73.6326318102487</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
@@ -19839,7 +19843,9 @@
       <c r="CD92" t="n">
         <v>103.930492643829</v>
       </c>
-      <c r="CE92" t="inlineStr"/>
+      <c r="CE92" t="n">
+        <v>139.772817928237</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -23477,34 +23483,34 @@
         <v>104.400525938897</v>
       </c>
       <c r="BQ109" t="n">
-        <v>99.03415232328091</v>
+        <v>99.0420535640917</v>
       </c>
       <c r="BR109" t="n">
-        <v>119.694348904945</v>
+        <v>119.696060315588</v>
       </c>
       <c r="BS109" t="n">
         <v>118.862295631944</v>
       </c>
       <c r="BT109" t="n">
-        <v>124.357805512092</v>
+        <v>124.360800024093</v>
       </c>
       <c r="BU109" t="n">
-        <v>130.605063613739</v>
+        <v>130.602146608675</v>
       </c>
       <c r="BV109" t="n">
-        <v>132.17511050454</v>
+        <v>132.176340040452</v>
       </c>
       <c r="BW109" t="n">
-        <v>132.917328224643</v>
+        <v>132.916900447096</v>
       </c>
       <c r="BX109" t="n">
-        <v>131.116854818146</v>
+        <v>131.119269493189</v>
       </c>
       <c r="BY109" t="n">
-        <v>141.774095429722</v>
+        <v>141.776035452531</v>
       </c>
       <c r="BZ109" t="n">
-        <v>137.780562038222</v>
+        <v>137.77496065589</v>
       </c>
       <c r="CA109" t="n">
         <v>147.015750449908</v>
@@ -25305,10 +25311,10 @@
         <v>19.3948762291831</v>
       </c>
       <c r="CD118" t="n">
-        <v>21.0228786645831</v>
+        <v>21.1517082848144</v>
       </c>
       <c r="CE118" t="n">
-        <v>21.2640291787323</v>
+        <v>22.2611101317166</v>
       </c>
     </row>
     <row r="119">
@@ -28898,7 +28904,9 @@
       <c r="CD135" t="n">
         <v>4104.60669868864</v>
       </c>
-      <c r="CE135" t="inlineStr"/>
+      <c r="CE135" t="n">
+        <v>3987.91870599152</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
@@ -29716,7 +29724,9 @@
       <c r="CD139" t="n">
         <v>107.876108106551</v>
       </c>
-      <c r="CE139" t="inlineStr"/>
+      <c r="CE139" t="n">
+        <v>89.3360746711304</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
@@ -31737,7 +31747,9 @@
       <c r="CD148" t="n">
         <v>50.1566291956821</v>
       </c>
-      <c r="CE148" t="inlineStr"/>
+      <c r="CE148" t="n">
+        <v>49.7149727149181</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
@@ -33654,7 +33666,9 @@
       <c r="CD157" t="n">
         <v>5.05357356505989</v>
       </c>
-      <c r="CE157" t="inlineStr"/>
+      <c r="CE157" t="n">
+        <v>4.91085557146754</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
@@ -38287,7 +38301,9 @@
       <c r="CD180" t="n">
         <v>11.5870351250368</v>
       </c>
-      <c r="CE180" t="inlineStr"/>
+      <c r="CE180" t="n">
+        <v>11.3327436264636</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
@@ -42884,7 +42900,9 @@
       <c r="CD201" t="n">
         <v>3.27408153226204</v>
       </c>
-      <c r="CE201" t="inlineStr"/>
+      <c r="CE201" t="n">
+        <v>3.19834058013768</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
@@ -44960,7 +44978,9 @@
       <c r="CD211" t="n">
         <v>60.9809668522213</v>
       </c>
-      <c r="CE211" t="inlineStr"/>
+      <c r="CE211" t="n">
+        <v>62.5548465835215</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
@@ -45742,7 +45762,9 @@
       <c r="CD215" t="n">
         <v>33314.8498880191</v>
       </c>
-      <c r="CE215" t="inlineStr"/>
+      <c r="CE215" t="n">
+        <v>32393.5993774607</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
@@ -46151,12 +46173,14 @@
         <v>298.867200267032</v>
       </c>
       <c r="CC217" t="n">
-        <v>834.1114701055189</v>
+        <v>846.289256689764</v>
       </c>
       <c r="CD217" t="n">
-        <v>1169.37797205399</v>
-      </c>
-      <c r="CE217" t="inlineStr"/>
+        <v>963.539603782145</v>
+      </c>
+      <c r="CE217" t="n">
+        <v>1332.41333365057</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
@@ -46560,7 +46584,9 @@
       <c r="CD219" t="n">
         <v>30.4847223522465</v>
       </c>
-      <c r="CE219" t="inlineStr"/>
+      <c r="CE219" t="n">
+        <v>23.3358654318517</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
@@ -46771,7 +46797,9 @@
       <c r="CD220" t="n">
         <v>117.794660924796</v>
       </c>
-      <c r="CE220" t="inlineStr"/>
+      <c r="CE220" t="n">
+        <v>152.088263985791</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
